--- a/PlayWrightPOM/Test Data/EA Data.xlsx
+++ b/PlayWrightPOM/Test Data/EA Data.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\PlayWright\PlayWrightPOM\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3E8C5E-4319-438A-AFE7-B49785BAD673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AB9BB8-CF32-468C-9091-41B8AFA6D5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" Login Data" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>username</t>
+    <t>un</t>
+  </si>
+  <si>
+    <t>pwd</t>
   </si>
   <si>
     <t>admin</t>
@@ -35,12 +43,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,12 +134,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -161,12 +169,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -336,33 +344,38 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
